--- a/data/appointment.xlsx
+++ b/data/appointment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\box\JY\blogging\cover_letter\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u204455/Library/CloudStorage/GoogleDrive-irewrl@gmail.com/Mi unidad/UNIVERSITAT/WORK/GITHUB/Irene_Rodriguez_CV/Irene_Rodriguez_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95FC96-C626-44E4-8A03-BC99D53F551A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254B4E2F-22AA-B64D-AFD0-F5C872C8287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>what</t>
   </si>
@@ -42,59 +42,41 @@
     <t>why</t>
   </si>
   <si>
-    <t>Assistant Professor</t>
-  </si>
-  <si>
-    <t>School of Information Sciences</t>
-  </si>
-  <si>
-    <t>University of Illinois at Urbana-Champaign</t>
-  </si>
-  <si>
-    <t>Faculty Affiliate</t>
-  </si>
-  <si>
-    <t>Illinois Informatics Institute</t>
-  </si>
-  <si>
-    <t>Sep. 2021 - Present</t>
-  </si>
-  <si>
-    <t>Dec. 2021 - Present</t>
-  </si>
-  <si>
-    <t>National Center for Supercomputing Applications</t>
-  </si>
-  <si>
-    <t>Software Engineer Intern</t>
-  </si>
-  <si>
-    <t>RStudio</t>
-  </si>
-  <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
-    <t>May. 2020 - Aug. 2020</t>
-  </si>
-  <si>
     <t>Jan. 2022 - Present</t>
   </si>
   <si>
-    <t>IDEA (Inclusion, Diversity, Equity, and Access) Institute</t>
+    <t>Ph.D. Candidate</t>
+  </si>
+  <si>
+    <t>COVIDEU Project</t>
+  </si>
+  <si>
+    <t>Universitat Pompeu Fabra</t>
+  </si>
+  <si>
+    <t>Thesis Title: "Are we better? COVID-19 Pandemic effects on political attitudes and behavior"</t>
+  </si>
+  <si>
+    <t>Supervisor: Dr. Toni Rodon.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,9 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,13 +383,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,75 +415,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
